--- a/biology/Botanique/Thalassiosiraceae/Thalassiosiraceae.xlsx
+++ b/biology/Botanique/Thalassiosiraceae/Thalassiosiraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Thalassiosiraceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Mediophyceae et de l’ordre des Thalassiosirales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Thalassiosira, de thalass-, mer, et -sir, « corde, chaine ».
 </t>
@@ -542,19 +556,21 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre type Thalassiosira  se présente sous la forme de cellules discoïdes à cylindriques, solitaires ou reliées par des fils ou valve à valve pour former des chaînes lâches ; ou en masses de mucilage.
 Les plastides[note 1] sont nombreux et discoïdes.
-La valve[1] est circulaire, avec une face plate et des manteaux[2] courts tournés vers le bas ou parfois presque en forme de verre de montre.
-Les aréoles[3] sont généralement loculaires, disposées en rangées radiales, en rangées tangentielles ou en arcs ; variant en taille et en importance. Elles s'ouvrent vers l'extérieur par des foramens[4] circulaires, parfois avec des projections en forme de doigt ; à l'intérieur, ils sont obstrués par des cribres[5] légèrement surélevés.
+La valve est circulaire, avec une face plate et des manteaux courts tournés vers le bas ou parfois presque en forme de verre de montre.
+Les aréoles sont généralement loculaires, disposées en rangées radiales, en rangées tangentielles ou en arcs ; variant en taille et en importance. Elles s'ouvrent vers l'extérieur par des foramens circulaires, parfois avec des projections en forme de doigt ; à l'intérieur, ils sont obstrués par des cribres légèrement surélevés.
 Le bord du manteau valvaire est souvent côtelé et bordé de façon très proéminente.
-Les fultoportules[note 2],[6]  sont présentes dans un anneau autour du manteau valvaire s'ouvrant à l'extérieur par de courts tubes ; chez certaines espèces, des fultoportules dispersées ou groupées existent également sur la face de la valve.
+Les fultoportules[note 2],  sont présentes dans un anneau autour du manteau valvaire s'ouvrant à l'extérieur par de courts tubes ; chez certaines espèces, des fultoportules dispersées ou groupées existent également sur la face de la valve.
 La structure interne de la fultoportula varie; des tubes très courts à très longs sont entourés de 3 ou 4 contreforts.
-Chaque valve a généralement une rimoportula[note 3],[7], qui s'ouvre vers l'extérieur à travers un tube plus grand et plus évident, situé quelque peu à l'intérieur de l'anneau marginal des fultoportulae; dans certains cas, cependant, le tube externe peut être mince et situé à proximité des fultoportules ; chez quelques espèces, une rimoportula peut apparaître au centre de la face valvaire.
-L'ouverture interne de la rimoportule est généralement allongée et sessile. Le bord du manteau peut être épaissi à l'intérieur chez certaines espèces. Les copules[8] sont nombreuses, fendues et ligulées[9].
-La valvocopule est plus manifestement aréolée[3] que les autres copules, avec une localisation similaire à celle de la valve et une rangée d'aréoles plus visible adjacente au manteau de la valve.
-Un léger septum[10] se produit sur la valvocopule de l’espèce Thalassiosira trifulta qui a également une ligule[9] triradiée complexe[11].
+Chaque valve a généralement une rimoportula[note 3] qui s'ouvre vers l'extérieur à travers un tube plus grand et plus évident, situé quelque peu à l'intérieur de l'anneau marginal des fultoportulae; dans certains cas, cependant, le tube externe peut être mince et situé à proximité des fultoportules ; chez quelques espèces, une rimoportula peut apparaître au centre de la face valvaire.
+L'ouverture interne de la rimoportule est généralement allongée et sessile. Le bord du manteau peut être épaissi à l'intérieur chez certaines espèces. Les copules sont nombreuses, fendues et ligulées.
+La valvocopule est plus manifestement aréolée que les autres copules, avec une localisation similaire à celle de la valve et une rangée d'aréoles plus visible adjacente au manteau de la valve.
+Un léger septum se produit sur la valvocopule de l’espèce Thalassiosira trifulta qui a également une ligule triradiée complexe.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Thalassiosira  vit principalement dans le plancton marin[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Thalassiosira  vit principalement dans le plancton marin.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (6 août 2022)[12] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (6 août 2022) :
 Bacterosira Gran, 1900
 Coenobiodiscus A.R.Loeblich, W.W.Wight &amp; Darley, 1968
 Conticribra Stachura-Suchoples &amp; D.M.Williams, 2009
@@ -645,7 +665,7 @@
 Takanoa I.V.Makarova, 1994
 Thalassiocyclus Håkansson &amp; Mahood, 1993
 Thalassiosira Cleve, 1873  genre type
-Selon Catalogue of Life                                   (4 février 2019)[13] :
+Selon Catalogue of Life                                   (4 février 2019) :
 Bacterosira
 Conticribra
 Coscinosira
@@ -665,7 +685,7 @@
 Thalassiosira
 Thalassiosiropsis
 Veniaminia
-Selon ITIS      (4 février 2019)[14] :
+Selon ITIS      (4 février 2019) :
 Bacterosira Gran
 Coscinosira Gran
 Microsiphona Weber
@@ -680,7 +700,7 @@
 Thalassiocyclus Håkansson &amp; Mahood
 Thalassiosira Cleve
 Tryblioptychus Hendey
-Selon NCBI  (4 février 2019)[15] :
+Selon NCBI  (4 février 2019) :
 Bacterosira
 Conticribra K.Stachura-Suchoples &amp; D.M.Williams, 2009
 Detonula
@@ -689,9 +709,9 @@
 Roundia
 Shionodiscus A.J.Alverson, S.H.Kang &amp; E.C.Theriot
 Thalassiosira
-Selon Paleobiology Database                   (4 février 2019)[16] :
+Selon Paleobiology Database                   (4 février 2019) :
 Mesodictyon
-Selon World Register of Marine Species                               (4 février 2019)[17] :
+Selon World Register of Marine Species                               (4 février 2019) :
 Conticribra K. Stachura-Suchoples &amp; D.M. Williams, 2009
 Coscinosira H.H. Gran, 1900
 Livingstonia A.K.S.K. Prasad in Prasad &amp; Nienow, 2011
@@ -735,9 +755,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Thalassiosiraceae M.Lebour, 1930[12].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Thalassiosiraceae M.Lebour, 1930.
 </t>
         </is>
       </c>
@@ -766,7 +788,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Lebour, M.V. (1930). The planktonic diatoms of northern seas.  pp. [i]-ix, 1-244, pls I-IV. London: Printed for the Ray Society sold by Dulau &amp; Co., Ltd. 32, Old Bond Street, London, W. 1.</t>
         </is>
